--- a/medicine/Mort/Jardin_des_Poètes_(Mont-Saint-Aubert)/Jardin_des_Poètes_(Mont-Saint-Aubert).xlsx
+++ b/medicine/Mort/Jardin_des_Poètes_(Mont-Saint-Aubert)/Jardin_des_Poètes_(Mont-Saint-Aubert).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_des_Po%C3%A8tes_(Mont-Saint-Aubert)</t>
+          <t>Jardin_des_Poètes_(Mont-Saint-Aubert)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Jardin des Poètes est un carré du cimetière de l'église Saint-Aubert de Mont-Saint-Aubert, section de Tournai, en Belgique[1]. Il comporte dix tombes, à savoir celles de Maurice Gérin, Gilbert Delahaye, Madeleine Gevers-Malfaire, Roger Bodart, Géo Libbrecht, Robert-Lucien Geeraert, Rachel De Guide, Robert Léonard, et Colette Nys-Mazure, cette dernière étant encore en vie. Les conjoints et conjointes sont également inhumés dans le cimetière. Inauguré en 1971, les tombes ont été placées en arc-de-cercle par l'architecte tournaisien Léopold Henno[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Jardin des Poètes est un carré du cimetière de l'église Saint-Aubert de Mont-Saint-Aubert, section de Tournai, en Belgique. Il comporte dix tombes, à savoir celles de Maurice Gérin, Gilbert Delahaye, Madeleine Gevers-Malfaire, Roger Bodart, Géo Libbrecht, Robert-Lucien Geeraert, Rachel De Guide, Robert Léonard, et Colette Nys-Mazure, cette dernière étant encore en vie. Les conjoints et conjointes sont également inhumés dans le cimetière. Inauguré en 1971, les tombes ont été placées en arc-de-cercle par l'architecte tournaisien Léopold Henno.
 			Tombe de Maurice Gérin.
 			Tombe de Gilbert Delahaye.
 			Tombe de Louis Dubrau née Louise Scheidt.
